--- a/data/预检分诊站/预检分诊-用户登录.xlsx
+++ b/data/预检分诊站/预检分诊-用户登录.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="57">
   <si>
     <t>接口名称</t>
   </si>
@@ -185,11 +185,7 @@
     <t>user=jizhen1&amp;password=111111</t>
   </si>
   <si>
-    <t>{"login":"success"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"login":"success"}]</t>
+    <t>[{"login":"success111"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -655,7 +651,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -663,7 +659,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -766,10 +762,10 @@
         <v>38</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>41</v>
@@ -916,6 +912,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>